--- a/database_market.xlsx
+++ b/database_market.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Angular\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53FF30F-F99B-4D06-82B1-8307B76B9094}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF3F10C-6E86-48FA-99B6-3D3622C752C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{828794BC-022B-4940-98C2-33F10A65F0C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="9" xr2:uid="{828794BC-022B-4940-98C2-33F10A65F0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>tomato</t>
   </si>
@@ -285,6 +285,9 @@
     <t>card</t>
   </si>
   <si>
+    <t>success</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
@@ -313,6 +316,27 @@
   </si>
   <si>
     <t>Poddar</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Mukherji</t>
+  </si>
+  <si>
+    <t>Venkat</t>
+  </si>
+  <si>
+    <t>Kud</t>
   </si>
 </sst>
 </file>
@@ -402,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,9 +461,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,13 +926,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="4">
         <v>7</v>
@@ -915,10 +946,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CCA12E-4176-4745-BB74-3EBA752B409D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,17 +1029,59 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>987</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>92</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="D6" s="2">
         <v>987654321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>234</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="8">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>432</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="8">
+        <v>231456778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>567</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="8">
+        <v>985432098</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1095,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,10 +1107,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>44</v>
@@ -1095,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1106,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1192,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>43</v>
@@ -1367,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7474912E-7CA7-40EE-A796-77571C929D45}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,9 +1453,10 @@
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
@@ -1407,8 +1481,11 @@
       <c r="H1" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1433,8 +1510,11 @@
       <c r="H2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1444,20 +1524,115 @@
       <c r="C3">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
       <c r="G3">
         <v>987</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="I3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>987</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>234</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>432</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>567</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1467,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2021F0-94B7-4088-B549-04E89443D86B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D2" s="4">
         <v>790</v>
@@ -1517,10 +1692,38 @@
         <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="4">
         <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -1530,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85701B81-75EE-428D-B45B-20B2A6B3A273}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,6 +1799,14 @@
       </c>
       <c r="B7" s="5" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1657,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763346F-5D46-414A-AE79-D91F513F52D3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,6 +1923,34 @@
         <v>191</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>135</v>
+      </c>
+      <c r="C4">
+        <v>13.5</v>
+      </c>
+      <c r="D4">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>240</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
